--- a/Data_frame/balancos_definitivos/REPA3.xlsx
+++ b/Data_frame/balancos_definitivos/REPA3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT80"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,122 +546,12 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2003</t>
+          <t>31/12/2003</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2003</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
           <t>31/03/2004</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2004</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2004</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2004</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2005</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2005</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2005</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2005</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2007</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2009</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2009</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2009</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2009</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2010</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2010</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2010</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2011</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2011</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2011</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2011</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2012</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2012</t>
         </is>
       </c>
     </row>
@@ -735,76 +625,10 @@
         <v>768472</v>
       </c>
       <c r="W2" t="n">
-        <v>53321</v>
+        <v>906220.992</v>
       </c>
       <c r="X2" t="n">
-        <v>906220.992</v>
-      </c>
-      <c r="Y2" t="n">
         <v>868216</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>64757</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>76140</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>58983</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>92660</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>126746</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>108500</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>93472</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>144454</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>159400.992</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>166480.992</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>167220</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>165704</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>176944</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>188218</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>186724</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>192044.992</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>204528.992</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>204842</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>210528.992</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>205136.992</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>207238</v>
       </c>
     </row>
     <row r="3">
@@ -877,76 +701,10 @@
         <v>438807.008</v>
       </c>
       <c r="W3" t="n">
-        <v>19733</v>
+        <v>553529.024</v>
       </c>
       <c r="X3" t="n">
-        <v>553529.024</v>
-      </c>
-      <c r="Y3" t="n">
         <v>515343.008</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>25124</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>35268</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>36316</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>74324</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>108139</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>91550</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>79813</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>120429</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>118942</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>125562</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>125669</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>125996</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>142512</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>151780.992</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>150046</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>155007.008</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>166460</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>166320.992</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>173672</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>168487.008</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>170464</v>
       </c>
     </row>
     <row r="4">
@@ -1019,76 +777,10 @@
         <v>7791</v>
       </c>
       <c r="W4" t="n">
-        <v>52</v>
+        <v>7802</v>
       </c>
       <c r="X4" t="n">
-        <v>7802</v>
-      </c>
-      <c r="Y4" t="n">
         <v>20438</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>5531</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>5330</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2109</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>12469</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>20172</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>14175</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1679</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2987</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2566</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1236</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1612</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>370</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1853</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>6064</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3123</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4410</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>406</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>1682</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>4783</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>3588</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3363</v>
       </c>
     </row>
     <row r="5">
@@ -1166,72 +858,6 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1303,76 +929,10 @@
         <v>193712.992</v>
       </c>
       <c r="W6" t="n">
-        <v>5799</v>
+        <v>354708</v>
       </c>
       <c r="X6" t="n">
-        <v>354708</v>
-      </c>
-      <c r="Y6" t="n">
         <v>298112</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>3935</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>6746</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>14316</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>17112</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>15160</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>3089</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7224</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>14485</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11479</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15038</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>16156</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>12556</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>16544</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>17556</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>19050</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>19378</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23193</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>17490</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>20751</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>17043</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>15878</v>
       </c>
     </row>
     <row r="7">
@@ -1445,76 +1005,10 @@
         <v>179794</v>
       </c>
       <c r="W7" t="n">
-        <v>11663</v>
+        <v>134926</v>
       </c>
       <c r="X7" t="n">
-        <v>134926</v>
-      </c>
-      <c r="Y7" t="n">
         <v>146238</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>14218</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>20656</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>14103</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>29241</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>50411</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>37313</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>30527</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>37736</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>16040</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>18288</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17301</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>18648</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>21092</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>24460</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>21837</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>22486</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>27764</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>25310</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>23146</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>20215</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>20036</v>
       </c>
     </row>
     <row r="8">
@@ -1592,72 +1086,6 @@
       <c r="X8" t="n">
         <v>0</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1734,72 +1162,6 @@
       <c r="X9" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>8425</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8670</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>9192</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>9006</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>11012</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>9870</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>9544</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1876,72 +1238,6 @@
       <c r="X10" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2013,76 +1309,10 @@
         <v>57509</v>
       </c>
       <c r="W11" t="n">
-        <v>2219</v>
+        <v>56093</v>
       </c>
       <c r="X11" t="n">
-        <v>56093</v>
-      </c>
-      <c r="Y11" t="n">
         <v>50555</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1440</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2536</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>5788</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>15502</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>22396</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>36973</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>40383</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>65221</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>88857</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>91000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>90600</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>94422</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>103023</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>103701</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>97611</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>100063</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>105905</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>112833</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>113980</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>117771</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>121643</v>
       </c>
     </row>
     <row r="12">
@@ -2155,76 +1385,10 @@
         <v>178092</v>
       </c>
       <c r="W12" t="n">
-        <v>8915</v>
+        <v>194692.992</v>
       </c>
       <c r="X12" t="n">
-        <v>194692.992</v>
-      </c>
-      <c r="Y12" t="n">
         <v>193048.992</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>19125</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>21684</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>4745</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1942</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3985</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>3579</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1653</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1199</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15098</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>16143</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17318</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15151</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>10626</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>12789</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>12466</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12364</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>12623</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>12677</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>10951</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>10951</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>10951</v>
       </c>
     </row>
     <row r="13">
@@ -2302,72 +1466,6 @@
       <c r="X13" t="n">
         <v>0</v>
       </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2444,72 +1542,6 @@
       <c r="X14" t="n">
         <v>0</v>
       </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2581,75 +1613,9 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>29601</v>
       </c>
       <c r="X15" t="n">
-        <v>29601</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2728,72 +1694,6 @@
       <c r="X16" t="n">
         <v>0</v>
       </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2870,72 +1770,6 @@
       <c r="X17" t="n">
         <v>0</v>
       </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3012,72 +1846,6 @@
       <c r="X18" t="n">
         <v>0</v>
       </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3154,72 +1922,6 @@
       <c r="X19" t="n">
         <v>0</v>
       </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3291,75 +1993,9 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>10992</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>13505</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>500</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>636</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>2604</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>2062</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>119</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>898</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3433,76 +2069,10 @@
         <v>178092</v>
       </c>
       <c r="W21" t="n">
-        <v>8188</v>
+        <v>165092</v>
       </c>
       <c r="X21" t="n">
-        <v>165092</v>
-      </c>
-      <c r="Y21" t="n">
         <v>193048.992</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>8133</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>8179</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>4245</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1306</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>1381</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1517</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1534</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>15098</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>16143</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>17318</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>15151</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>10626</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>12789</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>12466</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>12364</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>12623</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>12677</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>10951</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>10951</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>10951</v>
       </c>
     </row>
     <row r="22">
@@ -3580,72 +2150,6 @@
       <c r="X22" t="n">
         <v>0</v>
       </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>260</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>260</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3717,76 +2221,10 @@
         <v>148826</v>
       </c>
       <c r="W23" t="n">
-        <v>24673</v>
+        <v>155876</v>
       </c>
       <c r="X23" t="n">
-        <v>155876</v>
-      </c>
-      <c r="Y23" t="n">
         <v>157990</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>20508</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>19188</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>17922</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>16134</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>14362</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>13111</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>12006</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>22826</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>25361</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>24776</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>24233</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>24557</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>23806</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>23648</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>24212</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>24674</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>25446</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>25844</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>25906</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>25699</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>25823</v>
       </c>
     </row>
     <row r="24">
@@ -3864,72 +2302,6 @@
       <c r="X24" t="n">
         <v>0</v>
       </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4001,76 +2373,10 @@
         <v>2700</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2123</v>
       </c>
       <c r="X25" t="n">
-        <v>2123</v>
-      </c>
-      <c r="Y25" t="n">
         <v>1834</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4143,76 +2449,10 @@
         <v>768472</v>
       </c>
       <c r="W26" t="n">
-        <v>53321</v>
+        <v>906220.992</v>
       </c>
       <c r="X26" t="n">
-        <v>906220.992</v>
-      </c>
-      <c r="Y26" t="n">
         <v>868216</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>64757</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>76140</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>58983</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>92660</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>126746</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>108500</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>93472</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>144454</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>159400.992</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>166480.992</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>167220</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>165704</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>176944</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>188218</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>186724</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>192044.992</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>204528.992</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>204842</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>210528.992</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>205136.992</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>207238</v>
       </c>
     </row>
     <row r="27">
@@ -4285,76 +2525,10 @@
         <v>194775.008</v>
       </c>
       <c r="W27" t="n">
-        <v>118529</v>
+        <v>302696</v>
       </c>
       <c r="X27" t="n">
-        <v>302696</v>
-      </c>
-      <c r="Y27" t="n">
         <v>259526</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>146776.992</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>152874</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>138956</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>147108.992</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>177094</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>155599.008</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>147871.008</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>149944</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>215586</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>233166</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>238238</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>250463.008</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>268392</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>284118.016</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>296728</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>335015.008</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>362720</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>413822.016</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>369862.016</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>364476.992</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>379232.992</v>
       </c>
     </row>
     <row r="28">
@@ -4432,72 +2606,6 @@
       <c r="X28" t="n">
         <v>0</v>
       </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3360</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>3473</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>4408</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>4489</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>3275</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>3068</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3614</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4569,76 +2677,10 @@
         <v>63819</v>
       </c>
       <c r="W29" t="n">
-        <v>48527</v>
+        <v>96568</v>
       </c>
       <c r="X29" t="n">
-        <v>96568</v>
-      </c>
-      <c r="Y29" t="n">
         <v>90321</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>52629</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>63286</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>55381</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>79943</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>107031</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>83036</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>79879</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>97552</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>171394</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>190390</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>199592.992</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>210758</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>231304</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>246755.008</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>255523.008</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>293071.008</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>314072.992</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>329854.016</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>340812</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>335326.016</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>346440.992</v>
       </c>
     </row>
     <row r="30">
@@ -4711,76 +2753,10 @@
         <v>2057</v>
       </c>
       <c r="W30" t="n">
-        <v>31600</v>
+        <v>6516</v>
       </c>
       <c r="X30" t="n">
-        <v>6516</v>
-      </c>
-      <c r="Y30" t="n">
         <v>957</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>47258</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>45651</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>51789</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>50650</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>50804</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>52291</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>56378</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>22875</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>22763</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>24358</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>22081</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>16291</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>13607</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>13405</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>17654</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>17613</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>16716</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>20596</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>18185</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>19859</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>20218</v>
       </c>
     </row>
     <row r="31">
@@ -4853,76 +2829,10 @@
         <v>92942</v>
       </c>
       <c r="W31" t="n">
-        <v>9958</v>
+        <v>160482</v>
       </c>
       <c r="X31" t="n">
-        <v>160482</v>
-      </c>
-      <c r="Y31" t="n">
         <v>124831</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>5345</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>860</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>894</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>710</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>515</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>308</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>294</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>16889</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>6739</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>4615</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>2361</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1699</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>199</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>199</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>199</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>199</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>199</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>199</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>199</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>149</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -4995,76 +2905,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>22986</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>35636</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>36698</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>24556</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9453</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>11695</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>11923</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>4027</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1210</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>3899</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>3972</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>3905</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>3823</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>3440</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>3396</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3347</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>3271</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>3217</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>51399</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>1922</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>1759</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>1601</v>
       </c>
     </row>
     <row r="33">
@@ -5142,72 +2986,6 @@
       <c r="X33" t="n">
         <v>0</v>
       </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5279,76 +3057,10 @@
         <v>21278</v>
       </c>
       <c r="W34" t="n">
-        <v>5458</v>
+        <v>25034</v>
       </c>
       <c r="X34" t="n">
-        <v>25034</v>
-      </c>
-      <c r="Y34" t="n">
         <v>28289</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>5909</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>6379</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>6336</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>6353</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>7049</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>8041</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>7293</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>11418</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>10791</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>9831</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>10298</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>17892</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>19842</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>20363</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>16645</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>17388</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>24107</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>7285</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>5469</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>4316</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>7260</v>
       </c>
     </row>
     <row r="35">
@@ -5421,76 +3133,10 @@
         <v>14679</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>14096</v>
       </c>
       <c r="X35" t="n">
-        <v>14096</v>
-      </c>
-      <c r="Y35" t="n">
         <v>15128</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5568,72 +3214,6 @@
       <c r="X36" t="n">
         <v>0</v>
       </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5705,76 +3285,10 @@
         <v>178939.008</v>
       </c>
       <c r="W37" t="n">
-        <v>245831.008</v>
+        <v>221848</v>
       </c>
       <c r="X37" t="n">
-        <v>221848</v>
-      </c>
-      <c r="Y37" t="n">
         <v>230312</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>163128.992</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>164744</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>166530</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>187920.992</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>169075.008</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>173207.008</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>164943.008</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>226707.008</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>200752.992</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>197775.008</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>198508</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>149128</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>149579.008</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>151604.992</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>147732</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>150036</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>155687.008</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>120989</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>177692.992</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>198319.008</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>200712.992</v>
       </c>
     </row>
     <row r="38">
@@ -5847,76 +3361,10 @@
         <v>25997</v>
       </c>
       <c r="W38" t="n">
-        <v>4949</v>
+        <v>28250</v>
       </c>
       <c r="X38" t="n">
-        <v>28250</v>
-      </c>
-      <c r="Y38" t="n">
         <v>34787</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>2972</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>2854</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>2738</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>2819</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>2904</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>2993</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>1067</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>1061</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>39825</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>40780</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>41657</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>42532</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>44237</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>45335</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>46437</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>47609</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>48887</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5989,76 +3437,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>104424</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>26406</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>26406</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>26406</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>49623</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>50681</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>51831</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>52532</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>59256</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>63300</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>70742</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>78219</v>
       </c>
     </row>
     <row r="40">
@@ -6131,76 +3513,10 @@
         <v>152942</v>
       </c>
       <c r="W40" t="n">
-        <v>136458</v>
+        <v>193598</v>
       </c>
       <c r="X40" t="n">
-        <v>193598</v>
-      </c>
-      <c r="Y40" t="n">
         <v>195524.992</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>133751</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>135484</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>137386</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>135479.008</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>115490</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>118383</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>102617</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>158583.008</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>158463.008</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>154700.992</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>154883.008</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>102828</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>101799</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>103042</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>96815</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>98543</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>103230</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>114103</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>111041</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>124436</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>119744</v>
       </c>
     </row>
     <row r="41">
@@ -6278,72 +3594,6 @@
       <c r="X41" t="n">
         <v>0</v>
       </c>
-      <c r="Y41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6420,72 +3670,6 @@
       <c r="X42" t="n">
         <v>0</v>
       </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6562,72 +3746,6 @@
       <c r="X43" t="n">
         <v>0</v>
       </c>
-      <c r="Y43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>8727</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>7807</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>2465</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>2294</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1968</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>3768</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>3543</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>3228</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>4480</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>3884</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>3570</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>3336</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>3352</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>3141</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>2750</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6704,72 +3822,6 @@
       <c r="X44" t="n">
         <v>0</v>
       </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6846,72 +3898,6 @@
       <c r="X45" t="n">
         <v>0</v>
       </c>
-      <c r="Y45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6988,72 +3974,6 @@
       <c r="X46" t="n">
         <v>0</v>
       </c>
-      <c r="Y46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7125,76 +4045,10 @@
         <v>394758.016</v>
       </c>
       <c r="W47" t="n">
-        <v>-311039.008</v>
+        <v>381676.992</v>
       </c>
       <c r="X47" t="n">
-        <v>381676.992</v>
-      </c>
-      <c r="Y47" t="n">
         <v>378377.984</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>-245148.992</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>-241478</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>-246503.008</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>-242370</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>-219423.008</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>-220306</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>-219342</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>-232196.992</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>-256938</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>-264460</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>-269526.016</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>-233887.008</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>-241027.008</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>-247504.992</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>-257736</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>-293006.016</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>-313878.016</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>-329968.992</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>-337025.984</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>-357659.008</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>-372708</v>
       </c>
     </row>
     <row r="48">
@@ -7267,76 +4121,10 @@
         <v>605907.008</v>
       </c>
       <c r="W48" t="n">
-        <v>138611.008</v>
+        <v>605907.968</v>
       </c>
       <c r="X48" t="n">
-        <v>605907.968</v>
-      </c>
-      <c r="Y48" t="n">
         <v>605907.008</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>216648</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>216648</v>
       </c>
     </row>
     <row r="49">
@@ -7414,72 +4202,6 @@
       <c r="X49" t="n">
         <v>0</v>
       </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7551,76 +4273,10 @@
         <v>9306</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>9157</v>
       </c>
       <c r="X50" t="n">
-        <v>9157</v>
-      </c>
-      <c r="Y50" t="n">
         <v>9084</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>56</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>33</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -7698,72 +4354,6 @@
       <c r="X51" t="n">
         <v>0</v>
       </c>
-      <c r="Y51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7835,76 +4425,10 @@
         <v>-220455.008</v>
       </c>
       <c r="W52" t="n">
-        <v>-449649.984</v>
+        <v>-233388</v>
       </c>
       <c r="X52" t="n">
-        <v>-233388</v>
-      </c>
-      <c r="Y52" t="n">
         <v>-236612.992</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>-461796.992</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>-458126.016</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>-463151.008</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>-459017.984</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>-436071.008</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>-436953.984</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>-435990.016</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>-448844.992</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>-473665.984</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>-481164</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>-486207.008</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>-450544</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>-457675.008</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>-464152.992</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>-474384</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>-509654.016</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>-530526.0159999999</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>-546617.024</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>-553673.9840000001</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>-574307.008</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>-589356.032</v>
       </c>
     </row>
     <row r="53">
@@ -7982,72 +4506,6 @@
       <c r="X53" t="n">
         <v>0</v>
       </c>
-      <c r="Y53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8124,72 +4582,6 @@
       <c r="X54" t="n">
         <v>0</v>
       </c>
-      <c r="Y54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8266,72 +4658,6 @@
       <c r="X55" t="n">
         <v>0</v>
       </c>
-      <c r="Y55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8406,72 +4732,6 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8541,76 +4801,10 @@
         <v>316048.992</v>
       </c>
       <c r="W57" t="n">
-        <v>34354</v>
+        <v>-332909.056</v>
       </c>
       <c r="X57" t="n">
-        <v>-332909.056</v>
-      </c>
-      <c r="Y57" t="n">
         <v>457447.008</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>51201</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>57843</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>64494.992</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>64300</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>74470</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>76126</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>55220.992</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>68084</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>30378</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>41266</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>46267</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>42403</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>48753</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>53034</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -8679,76 +4873,10 @@
         <v>-78747</v>
       </c>
       <c r="W58" t="n">
-        <v>-8447</v>
+        <v>113286.976</v>
       </c>
       <c r="X58" t="n">
-        <v>113286.976</v>
-      </c>
-      <c r="Y58" t="n">
         <v>-120389</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>-13438</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>-15085</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>-16802</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>-16427</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>-18009</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>-17502</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>-12341</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>-16405</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>-7689</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>-8599</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>-9228</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>-6995</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>-9595</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>-10186</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -8817,76 +4945,10 @@
         <v>237302</v>
       </c>
       <c r="W59" t="n">
-        <v>25907</v>
+        <v>-219622.016</v>
       </c>
       <c r="X59" t="n">
-        <v>-219622.016</v>
-      </c>
-      <c r="Y59" t="n">
         <v>337057.984</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>37763</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>42758</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>47693</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>47873</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>56461</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>58624</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>42880</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>51679</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>22689</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>32667</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>37039</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>35408</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>39158</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>42848</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>-47677.984</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>39847</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>38936</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>37405</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>39179.008</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>35524</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>32599</v>
       </c>
     </row>
     <row r="60">
@@ -8955,76 +5017,10 @@
         <v>-204783.008</v>
       </c>
       <c r="W60" t="n">
-        <v>-21390</v>
+        <v>253137.024</v>
       </c>
       <c r="X60" t="n">
-        <v>253137.024</v>
-      </c>
-      <c r="Y60" t="n">
         <v>-267311.008</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>-34373</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>-38770</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>-40670</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>-41459</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>-48357</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>-52596</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>-39776</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>-43822</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>-24173</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>-33773</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>-36332</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>-35202</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>-35927</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>-40102</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>54592.992</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>-38078</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>-37582</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>-36697</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>-35337</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>-32910</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>-31336</v>
       </c>
     </row>
     <row r="61">
@@ -9093,76 +5089,10 @@
         <v>32519</v>
       </c>
       <c r="W61" t="n">
-        <v>4517</v>
+        <v>33515.008</v>
       </c>
       <c r="X61" t="n">
-        <v>33515.008</v>
-      </c>
-      <c r="Y61" t="n">
         <v>69747</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>3390</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>3988</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>7023</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>6414</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>8104</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>6028</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>3104</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>7857</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>-1484</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>-1106</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>707</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>206</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>3231</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>2746</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>6915</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>1769</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>1354</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>708</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>3842</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>2614</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>1263</v>
       </c>
     </row>
     <row r="62">
@@ -9231,76 +5161,10 @@
         <v>-42305</v>
       </c>
       <c r="W62" t="n">
-        <v>-707</v>
+        <v>-7004</v>
       </c>
       <c r="X62" t="n">
-        <v>-7004</v>
-      </c>
-      <c r="Y62" t="n">
         <v>-47943</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>-971</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>-935</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>-1107</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>-984</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>-1251</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>-765</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>-1137</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>-1021</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>-687</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>-1025</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>-1288</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>-1546</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>-1925</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>-1676</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>1448</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>-1733</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>-1534</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>-1294</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>-1325</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>-1287</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>-1305</v>
       </c>
     </row>
     <row r="63">
@@ -9369,76 +5233,10 @@
         <v>-7323</v>
       </c>
       <c r="W63" t="n">
-        <v>-1746</v>
+        <v>10739</v>
       </c>
       <c r="X63" t="n">
-        <v>10739</v>
-      </c>
-      <c r="Y63" t="n">
         <v>-9739</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>-874</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>-532</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>133</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>-202</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>-560</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>-468</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>-2211</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>-1843</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>-1470</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>-1401</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>-1065</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>-2745</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>-2001</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>-2246</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>1545</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>-2943</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>-3615</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>-2085</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>-2353</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-2335</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-3010</v>
       </c>
     </row>
     <row r="64">
@@ -9510,72 +5308,6 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9645,76 +5377,10 @@
         <v>6001</v>
       </c>
       <c r="W65" t="n">
-        <v>83</v>
+        <v>4033</v>
       </c>
       <c r="X65" t="n">
-        <v>4033</v>
-      </c>
-      <c r="Y65" t="n">
         <v>2545</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>895</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>1008</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>-1601</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>914</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>896</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>1472</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>931</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>904</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>293</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>924</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>44014</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>1780</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>-813</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>-45350</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>56</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>71</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>327</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>-389</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>33</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>59</v>
       </c>
     </row>
     <row r="66">
@@ -9783,76 +5449,10 @@
         <v>-2720</v>
       </c>
       <c r="W66" t="n">
-        <v>-815</v>
+        <v>-9976</v>
       </c>
       <c r="X66" t="n">
-        <v>-9976</v>
-      </c>
-      <c r="Y66" t="n">
         <v>-3188</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>-108</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>351</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>-426</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>-555</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>-83</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>-680</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>-1244</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>-133</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>-77</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>-104</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>-230</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>-1703</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>-242</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>-165</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>-183</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>-9484</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>-4085</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>1075</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>-12221</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>-842</v>
       </c>
     </row>
     <row r="67">
@@ -9926,72 +5526,6 @@
       <c r="X67" t="n">
         <v>0</v>
       </c>
-      <c r="Y67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>-698</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>698</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10059,76 +5593,10 @@
         <v>-13663</v>
       </c>
       <c r="W68" t="n">
-        <v>-7940</v>
+        <v>28422</v>
       </c>
       <c r="X68" t="n">
-        <v>28422</v>
-      </c>
-      <c r="Y68" t="n">
         <v>-10665</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>-5143</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>-4519</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>-8594</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>-2265</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>-6656</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>-6254</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>-5094</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>-4521</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>-4191</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>-4126</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>-3297</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>-4451</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>-4328</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>7484</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>-9943</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>-7664</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>-9662</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>-7907</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>-7437</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>-11214</v>
       </c>
     </row>
     <row r="69">
@@ -10197,76 +5665,10 @@
         <v>3840</v>
       </c>
       <c r="W69" t="n">
-        <v>236</v>
+        <v>-25929</v>
       </c>
       <c r="X69" t="n">
-        <v>-25929</v>
-      </c>
-      <c r="Y69" t="n">
         <v>2273</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>479</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>1008</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>350</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>439</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>1054</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>1583</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>643</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>119</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>64</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>121</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>269</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>587</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>217</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>178</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>-498</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>322</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>250</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>362</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>393</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>604</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>125</v>
       </c>
     </row>
     <row r="70">
@@ -10335,76 +5737,10 @@
         <v>-17503</v>
       </c>
       <c r="W70" t="n">
-        <v>-8176</v>
+        <v>54351</v>
       </c>
       <c r="X70" t="n">
-        <v>54351</v>
-      </c>
-      <c r="Y70" t="n">
         <v>-12938</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>-5622</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>-5527</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>-8944</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>-2704</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>-7710</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>-7837</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>-615</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>-5213</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>-4585</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>-4312</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>-4395</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>-3884</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>-4668</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>-4506</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>7982</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>-10265</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>-7914</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>-10024</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>-8300</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>-8041</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>-11339</v>
       </c>
     </row>
     <row r="71">
@@ -10473,76 +5809,10 @@
         <v>-190</v>
       </c>
       <c r="W71" t="n">
-        <v>31</v>
+        <v>-2738</v>
       </c>
       <c r="X71" t="n">
-        <v>-2738</v>
-      </c>
-      <c r="Y71" t="n">
         <v>-1247</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>1684</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>4310</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>-453</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>810</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>22498</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>-216</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>1493</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>-213</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -10611,76 +5881,10 @@
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>31</v>
+        <v>-1834</v>
       </c>
       <c r="X72" t="n">
-        <v>-1834</v>
-      </c>
-      <c r="Y72" t="n">
         <v>54</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>1942</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>4591</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>489</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>871</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>22978</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>428</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>3356</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -10749,76 +5953,10 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>-1094</v>
       </c>
       <c r="X73" t="n">
-        <v>-1094</v>
-      </c>
-      <c r="Y73" t="n">
         <v>-1301</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>-258</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>-281</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>-942</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>-61</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>-480</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>-644</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>-1863</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>-217</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -10887,76 +6025,10 @@
         <v>-27681</v>
       </c>
       <c r="W74" t="n">
-        <v>-6577</v>
+        <v>56991</v>
       </c>
       <c r="X74" t="n">
-        <v>56991</v>
-      </c>
-      <c r="Y74" t="n">
         <v>-490</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>-1127</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>3671</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>-5025</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>4132</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>22948</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>-883</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>964</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>457</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>-8916</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>-7534</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>-5078</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>35627</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>-3608</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>-6482</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>-27898</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>-12977</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>-20872</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>-16091</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>-7057</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>-20633</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>-15049</v>
       </c>
     </row>
     <row r="75">
@@ -11025,76 +6097,10 @@
         <v>266</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>-5026</v>
       </c>
       <c r="X75" t="n">
-        <v>-5026</v>
-      </c>
-      <c r="Y75" t="n">
         <v>-2173</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -11163,76 +6169,10 @@
         <v>139</v>
       </c>
       <c r="W76" t="n">
-        <v>1</v>
+        <v>-8660</v>
       </c>
       <c r="X76" t="n">
-        <v>-8660</v>
-      </c>
-      <c r="Y76" t="n">
         <v>-630</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -11306,72 +6246,6 @@
       <c r="X77" t="n">
         <v>0</v>
       </c>
-      <c r="Y77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11444,72 +6318,6 @@
       <c r="X78" t="n">
         <v>0</v>
       </c>
-      <c r="Y78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11580,72 +6388,6 @@
         <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11715,76 +6457,10 @@
         <v>-27276</v>
       </c>
       <c r="W80" t="n">
-        <v>-6576</v>
+        <v>43305</v>
       </c>
       <c r="X80" t="n">
-        <v>43305</v>
-      </c>
-      <c r="Y80" t="n">
         <v>-3293</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>-1127</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>3671</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>-5025</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>4132</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>22948</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>-883</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>964</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>457</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>-8912</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>-7522</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>-5066</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>35640</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>-3604</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>-6478</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>-27907</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>-12977</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>-20872</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>-16091</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>-7057</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>-20633</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>-15049</v>
       </c>
     </row>
   </sheetData>
